--- a/_resource/excel/table/K-框架-全局常量-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-全局常量-(框架定义,策划填写).xlsx
@@ -196,10 +196,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>key=Str,Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Service</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -221,6 +217,10 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=Int,Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -947,22 +947,22 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
